--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,148 +61,148 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>ready</t>
   </si>
   <si>
     <t>credit</t>
@@ -742,10 +742,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1074,7 +1074,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.9777777777777777</v>
@@ -1124,7 +1124,7 @@
         <v>460</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.9655172413793104</v>
@@ -1149,32 +1149,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1068702290076336</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>223</v>
-      </c>
-      <c r="E10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>117</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1200,7 +1176,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0.9361702127659575</v>
@@ -1226,7 +1202,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0.9333333333333333</v>
@@ -1252,7 +1228,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.9285714285714286</v>
@@ -1278,7 +1254,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>0.9166666666666666</v>
@@ -1304,7 +1280,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>0.9145299145299145</v>
@@ -1330,7 +1306,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
         <v>0.9117647058823529</v>
@@ -1356,7 +1332,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>0.8899082568807339</v>
@@ -1382,7 +1358,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
         <v>0.889763779527559</v>
@@ -1408,7 +1384,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
         <v>0.8888888888888888</v>
@@ -1434,7 +1410,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>0.8666666666666667</v>
@@ -1460,7 +1436,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.8666666666666667</v>
@@ -1486,7 +1462,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
         <v>0.85</v>
@@ -1512,7 +1488,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
         <v>0.8461538461538461</v>
@@ -1538,7 +1514,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
         <v>0.8421052631578947</v>
@@ -1564,7 +1540,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
         <v>0.84</v>
@@ -1590,7 +1566,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>0.8357142857142857</v>
@@ -1616,7 +1592,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>0.8214285714285714</v>
@@ -1642,7 +1618,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>0.8181818181818182</v>
@@ -1668,7 +1644,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>0.8141025641025641</v>
@@ -1694,7 +1670,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>0.8095238095238095</v>
@@ -1720,7 +1696,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>0.797979797979798</v>
@@ -1746,7 +1722,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>0.7804878048780488</v>
@@ -1772,7 +1748,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>0.7777777777777778</v>
@@ -1798,85 +1774,85 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.7665198237885462</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>0.7424242424242424</v>
+      </c>
+      <c r="L35">
         <v>49</v>
       </c>
-      <c r="K35">
-        <v>0.75</v>
-      </c>
-      <c r="L35">
-        <v>18</v>
-      </c>
       <c r="M35">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.7424242424242424</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L36">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="M36">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="N36">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>0.7254901960784313</v>
@@ -1902,7 +1878,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38">
         <v>0.7222222222222222</v>
@@ -1928,7 +1904,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
         <v>0.7111111111111111</v>
@@ -1954,7 +1930,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40">
         <v>0.7111111111111111</v>
@@ -1980,7 +1956,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>0.6857142857142857</v>
@@ -2006,7 +1982,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
         <v>0.6818181818181818</v>
@@ -2032,7 +2008,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43">
         <v>0.6605263157894737</v>
@@ -2058,7 +2034,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44">
         <v>0.65625</v>
@@ -2084,7 +2060,7 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K45">
         <v>0.6521739130434783</v>
@@ -2110,7 +2086,7 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K46">
         <v>0.6433566433566433</v>
@@ -2136,28 +2112,28 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.6411042944785276</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L47">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>117</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2165,25 +2141,25 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.6363636363636364</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N48">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O48">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2191,25 +2167,25 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.6296296296296297</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="10:17">
